--- a/220/220-testcase.xlsx
+++ b/220/220-testcase.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\9-cdptw1-2\9-cdptw1-2\301\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\8-cdptw1-2\220\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7650" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16820" windowHeight="7650" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="2" r:id="rId1"/>
@@ -307,7 +307,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="77">
   <si>
     <t>VERSION</t>
   </si>
@@ -477,58 +477,67 @@
     <t>Mobie</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>OK</t>
   </si>
   <si>
-    <t>Tình</t>
+    <t>Block 220</t>
   </si>
   <si>
-    <t>10/9/2019</t>
+    <t>Cân đối</t>
   </si>
   <si>
-    <t>- hiển thị theo tỉ lệ được đặt</t>
+    <t>Cân đối lề trái và lề phải</t>
   </si>
   <si>
-    <t>- hiển thị theo kích thước margin</t>
+    <t>Hiển thị lề trái bằng lề phải</t>
   </si>
   <si>
-    <t>row: chia 3 cột nhỏ</t>
+    <t>Hover</t>
   </si>
   <si>
-    <t>- col-md-4</t>
+    <t>Hover xuất hiện màu đặc trưng của trang Web</t>
   </si>
   <si>
-    <t>- hiển thị theo 3 cột được chia theo bootstrap</t>
+    <t>Hiển thị màu đặc trưng khi con trỏ chuột trỏ tới</t>
   </si>
   <si>
-    <t>cột 1,2,3</t>
+    <t>27/09/2019</t>
   </si>
   <si>
-    <t>- tạo bóng mờ cho khung, bo góc cho 4 cạnh khung, hiệu ứng</t>
+    <t>Thông tiin</t>
   </si>
   <si>
-    <t>Block 832</t>
+    <t>Thu nhỏ và phóng lớn màn hình</t>
   </si>
   <si>
-    <t>- margin-top:10px;</t>
+    <t>Hiển thị đầy đủ thông tin</t>
   </si>
   <si>
-    <t>hiệu ứng hover thay đổi magin-top</t>
+    <t>Hiển thị thông tin trên màn hình Mobie</t>
   </si>
   <si>
-    <t>thẻ &lt;a&gt;&lt;/a&gt; thêm css</t>
+    <t>Hiển thị đầy đủ thông tin khi chuyển sang màn hình Mobie</t>
   </si>
   <si>
-    <t>margin-top:30px</t>
+    <t>Navbar</t>
   </si>
   <si>
-    <t>thẻ &lt;p&gt;&lt;/b&gt;</t>
+    <t>Hiển thị thanh Navbar trên màn hình điện thoại</t>
   </si>
   <si>
-    <t>xóa the &lt;p&gt;&lt;/p&gt;</t>
+    <t>Hiện thị và xuất hiện khi được click</t>
+  </si>
+  <si>
+    <t>Thông tin</t>
+  </si>
+  <si>
+    <t>DĐộ ưu tiên</t>
+  </si>
+  <si>
+    <t>Hiển thị Navbar đè lên thông tin</t>
+  </si>
+  <si>
+    <t>Hiển thị theo yêu cầu. Thông tin không bị đẩy xuống</t>
   </si>
 </sst>
 </file>
@@ -1139,6 +1148,48 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="16" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="15" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1199,51 +1250,6 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="15" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1251,6 +1257,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1974,13 +1983,13 @@
       <selection activeCell="AG21" sqref="AG21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="14.1" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="5.7265625" defaultRowHeight="14.15" customHeight="1"/>
   <cols>
-    <col min="1" max="56" width="2.7109375" style="35" customWidth="1"/>
-    <col min="57" max="16384" width="5.7109375" style="35"/>
+    <col min="1" max="56" width="2.7265625" style="35" customWidth="1"/>
+    <col min="57" max="16384" width="5.7265625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" s="34" customFormat="1" ht="14.1" customHeight="1">
+    <row r="1" spans="1:56" s="34" customFormat="1" ht="14.15" customHeight="1">
       <c r="A1" s="36"/>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
@@ -2038,7 +2047,7 @@
       <c r="BC1" s="36"/>
       <c r="BD1" s="36"/>
     </row>
-    <row r="2" spans="1:56" ht="14.1" customHeight="1">
+    <row r="2" spans="1:56" ht="14.15" customHeight="1">
       <c r="A2" s="37"/>
       <c r="B2" s="37"/>
       <c r="C2" s="37"/>
@@ -2096,7 +2105,7 @@
       <c r="BC2" s="37"/>
       <c r="BD2" s="37"/>
     </row>
-    <row r="3" spans="1:56" ht="14.1" customHeight="1">
+    <row r="3" spans="1:56" ht="14.15" customHeight="1">
       <c r="A3" s="37"/>
       <c r="B3" s="37"/>
       <c r="C3" s="37"/>
@@ -2154,7 +2163,7 @@
       <c r="BC3" s="37"/>
       <c r="BD3" s="37"/>
     </row>
-    <row r="4" spans="1:56" ht="14.1" customHeight="1">
+    <row r="4" spans="1:56" ht="14.15" customHeight="1">
       <c r="A4" s="37"/>
       <c r="B4" s="37"/>
       <c r="C4" s="37"/>
@@ -2212,7 +2221,7 @@
       <c r="BC4" s="37"/>
       <c r="BD4" s="37"/>
     </row>
-    <row r="5" spans="1:56" ht="14.1" customHeight="1">
+    <row r="5" spans="1:56" ht="14.15" customHeight="1">
       <c r="A5" s="37"/>
       <c r="B5" s="37"/>
       <c r="C5" s="37"/>
@@ -2270,7 +2279,7 @@
       <c r="BC5" s="37"/>
       <c r="BD5" s="37"/>
     </row>
-    <row r="6" spans="1:56" ht="14.1" customHeight="1">
+    <row r="6" spans="1:56" ht="14.15" customHeight="1">
       <c r="A6" s="37"/>
       <c r="B6" s="37"/>
       <c r="C6" s="37"/>
@@ -2328,7 +2337,7 @@
       <c r="BC6" s="37"/>
       <c r="BD6" s="37"/>
     </row>
-    <row r="7" spans="1:56" ht="14.1" customHeight="1">
+    <row r="7" spans="1:56" ht="14.15" customHeight="1">
       <c r="A7" s="37"/>
       <c r="B7" s="37"/>
       <c r="C7" s="37"/>
@@ -2386,7 +2395,7 @@
       <c r="BC7" s="37"/>
       <c r="BD7" s="37"/>
     </row>
-    <row r="8" spans="1:56" ht="14.1" customHeight="1">
+    <row r="8" spans="1:56" ht="14.15" customHeight="1">
       <c r="A8" s="37"/>
       <c r="B8" s="37"/>
       <c r="C8" s="37"/>
@@ -2444,7 +2453,7 @@
       <c r="BC8" s="37"/>
       <c r="BD8" s="37"/>
     </row>
-    <row r="9" spans="1:56" ht="14.1" customHeight="1">
+    <row r="9" spans="1:56" ht="14.15" customHeight="1">
       <c r="A9" s="37"/>
       <c r="B9" s="37"/>
       <c r="C9" s="37"/>
@@ -2502,7 +2511,7 @@
       <c r="BC9" s="37"/>
       <c r="BD9" s="37"/>
     </row>
-    <row r="10" spans="1:56" ht="14.1" customHeight="1">
+    <row r="10" spans="1:56" ht="14.15" customHeight="1">
       <c r="A10" s="37"/>
       <c r="B10" s="37"/>
       <c r="C10" s="37"/>
@@ -2560,7 +2569,7 @@
       <c r="BC10" s="37"/>
       <c r="BD10" s="37"/>
     </row>
-    <row r="11" spans="1:56" ht="14.1" customHeight="1">
+    <row r="11" spans="1:56" ht="14.15" customHeight="1">
       <c r="A11" s="37"/>
       <c r="B11" s="37"/>
       <c r="C11" s="37"/>
@@ -2618,7 +2627,7 @@
       <c r="BC11" s="37"/>
       <c r="BD11" s="37"/>
     </row>
-    <row r="12" spans="1:56" ht="14.1" customHeight="1">
+    <row r="12" spans="1:56" ht="14.15" customHeight="1">
       <c r="A12" s="37"/>
       <c r="B12" s="37"/>
       <c r="C12" s="37"/>
@@ -2676,7 +2685,7 @@
       <c r="BC12" s="37"/>
       <c r="BD12" s="37"/>
     </row>
-    <row r="13" spans="1:56" ht="14.1" customHeight="1">
+    <row r="13" spans="1:56" ht="14.15" customHeight="1">
       <c r="A13" s="37"/>
       <c r="B13" s="37"/>
       <c r="C13" s="37"/>
@@ -2734,7 +2743,7 @@
       <c r="BC13" s="37"/>
       <c r="BD13" s="37"/>
     </row>
-    <row r="14" spans="1:56" ht="14.1" customHeight="1">
+    <row r="14" spans="1:56" ht="14.15" customHeight="1">
       <c r="A14" s="37"/>
       <c r="B14" s="37"/>
       <c r="C14" s="37"/>
@@ -2792,7 +2801,7 @@
       <c r="BC14" s="37"/>
       <c r="BD14" s="37"/>
     </row>
-    <row r="15" spans="1:56" ht="14.1" customHeight="1">
+    <row r="15" spans="1:56" ht="14.15" customHeight="1">
       <c r="A15" s="37"/>
       <c r="B15" s="37"/>
       <c r="C15" s="37"/>
@@ -2850,7 +2859,7 @@
       <c r="BC15" s="37"/>
       <c r="BD15" s="37"/>
     </row>
-    <row r="16" spans="1:56" ht="14.1" customHeight="1">
+    <row r="16" spans="1:56" ht="14.15" customHeight="1">
       <c r="A16" s="37"/>
       <c r="B16" s="37"/>
       <c r="C16" s="37"/>
@@ -2908,7 +2917,7 @@
       <c r="BC16" s="37"/>
       <c r="BD16" s="37"/>
     </row>
-    <row r="17" spans="1:59" ht="14.1" customHeight="1">
+    <row r="17" spans="1:59" ht="14.15" customHeight="1">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="37"/>
@@ -2966,7 +2975,7 @@
       <c r="BC17" s="37"/>
       <c r="BD17" s="37"/>
     </row>
-    <row r="18" spans="1:59" ht="14.1" customHeight="1">
+    <row r="18" spans="1:59" ht="14.15" customHeight="1">
       <c r="A18" s="37"/>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
@@ -3028,7 +3037,7 @@
       <c r="BC18" s="37"/>
       <c r="BD18" s="37"/>
     </row>
-    <row r="19" spans="1:59" ht="14.1" customHeight="1">
+    <row r="19" spans="1:59" ht="14.15" customHeight="1">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -3086,7 +3095,7 @@
       <c r="BC19" s="37"/>
       <c r="BD19" s="37"/>
     </row>
-    <row r="20" spans="1:59" ht="14.1" customHeight="1">
+    <row r="20" spans="1:59" ht="14.15" customHeight="1">
       <c r="A20" s="37"/>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
@@ -3144,7 +3153,7 @@
       <c r="BC20" s="37"/>
       <c r="BD20" s="37"/>
     </row>
-    <row r="21" spans="1:59" ht="14.1" customHeight="1">
+    <row r="21" spans="1:59" ht="14.15" customHeight="1">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
@@ -3202,7 +3211,7 @@
       <c r="BC21" s="37"/>
       <c r="BD21" s="37"/>
     </row>
-    <row r="22" spans="1:59" ht="14.1" customHeight="1">
+    <row r="22" spans="1:59" ht="14.15" customHeight="1">
       <c r="A22" s="37"/>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
@@ -3260,7 +3269,7 @@
       <c r="BC22" s="37"/>
       <c r="BD22" s="37"/>
     </row>
-    <row r="23" spans="1:59" ht="14.1" customHeight="1">
+    <row r="23" spans="1:59" ht="14.15" customHeight="1">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
@@ -3318,7 +3327,7 @@
       <c r="BC23" s="37"/>
       <c r="BD23" s="37"/>
     </row>
-    <row r="24" spans="1:59" ht="14.1" customHeight="1">
+    <row r="24" spans="1:59" ht="14.15" customHeight="1">
       <c r="A24" s="37"/>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
@@ -3376,7 +3385,7 @@
       <c r="BC24" s="37"/>
       <c r="BD24" s="37"/>
     </row>
-    <row r="25" spans="1:59" ht="14.1" customHeight="1">
+    <row r="25" spans="1:59" ht="14.15" customHeight="1">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
@@ -3434,7 +3443,7 @@
       <c r="BC25" s="37"/>
       <c r="BD25" s="37"/>
     </row>
-    <row r="26" spans="1:59" ht="14.1" customHeight="1">
+    <row r="26" spans="1:59" ht="14.15" customHeight="1">
       <c r="A26" s="37"/>
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
@@ -3492,7 +3501,7 @@
       <c r="BC26" s="37"/>
       <c r="BD26" s="37"/>
     </row>
-    <row r="27" spans="1:59" ht="14.1" customHeight="1">
+    <row r="27" spans="1:59" ht="14.15" customHeight="1">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
@@ -3550,7 +3559,7 @@
       <c r="BC27" s="37"/>
       <c r="BD27" s="37"/>
     </row>
-    <row r="28" spans="1:59" ht="14.1" customHeight="1">
+    <row r="28" spans="1:59" ht="14.15" customHeight="1">
       <c r="A28" s="37"/>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
@@ -3608,7 +3617,7 @@
       <c r="BC28" s="37"/>
       <c r="BD28" s="37"/>
     </row>
-    <row r="29" spans="1:59" ht="14.1" customHeight="1">
+    <row r="29" spans="1:59" ht="14.15" customHeight="1">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
@@ -3666,7 +3675,7 @@
       <c r="BC29" s="37"/>
       <c r="BD29" s="37"/>
     </row>
-    <row r="30" spans="1:59" ht="14.1" customHeight="1">
+    <row r="30" spans="1:59" ht="14.15" customHeight="1">
       <c r="A30" s="37"/>
       <c r="B30" s="37"/>
       <c r="C30" s="37"/>
@@ -3724,7 +3733,7 @@
       <c r="BC30" s="37"/>
       <c r="BD30" s="37"/>
     </row>
-    <row r="31" spans="1:59" ht="14.1" customHeight="1">
+    <row r="31" spans="1:59" ht="14.15" customHeight="1">
       <c r="A31" s="37"/>
       <c r="B31" s="37"/>
       <c r="C31" s="37"/>
@@ -3783,7 +3792,7 @@
       <c r="BD31" s="37"/>
       <c r="BG31" s="44"/>
     </row>
-    <row r="32" spans="1:59" ht="14.1" customHeight="1">
+    <row r="32" spans="1:59" ht="14.15" customHeight="1">
       <c r="A32" s="37"/>
       <c r="B32" s="37"/>
       <c r="C32" s="37"/>
@@ -3841,7 +3850,7 @@
       <c r="BC32" s="37"/>
       <c r="BD32" s="37"/>
     </row>
-    <row r="33" spans="1:56" ht="14.1" customHeight="1">
+    <row r="33" spans="1:56" ht="14.15" customHeight="1">
       <c r="A33" s="37"/>
       <c r="B33" s="37"/>
       <c r="C33" s="37"/>
@@ -3901,7 +3910,7 @@
       <c r="BC33" s="37"/>
       <c r="BD33" s="37"/>
     </row>
-    <row r="34" spans="1:56" ht="14.1" customHeight="1">
+    <row r="34" spans="1:56" ht="14.15" customHeight="1">
       <c r="A34" s="37"/>
       <c r="B34" s="37"/>
       <c r="C34" s="37"/>
@@ -3959,7 +3968,7 @@
       <c r="BC34" s="37"/>
       <c r="BD34" s="37"/>
     </row>
-    <row r="35" spans="1:56" ht="14.1" customHeight="1">
+    <row r="35" spans="1:56" ht="14.15" customHeight="1">
       <c r="A35" s="37"/>
       <c r="B35" s="37"/>
       <c r="C35" s="37"/>
@@ -4017,7 +4026,7 @@
       <c r="BC35" s="37"/>
       <c r="BD35" s="37"/>
     </row>
-    <row r="36" spans="1:56" ht="14.1" customHeight="1">
+    <row r="36" spans="1:56" ht="14.15" customHeight="1">
       <c r="A36" s="37"/>
       <c r="B36" s="37"/>
       <c r="C36" s="37"/>
@@ -4075,7 +4084,7 @@
       <c r="BC36" s="37"/>
       <c r="BD36" s="37"/>
     </row>
-    <row r="37" spans="1:56" ht="14.1" customHeight="1">
+    <row r="37" spans="1:56" ht="14.15" customHeight="1">
       <c r="A37" s="37"/>
       <c r="B37" s="37"/>
       <c r="C37" s="37"/>
@@ -4133,7 +4142,7 @@
       <c r="BC37" s="37"/>
       <c r="BD37" s="37"/>
     </row>
-    <row r="38" spans="1:56" ht="14.1" customHeight="1">
+    <row r="38" spans="1:56" ht="14.15" customHeight="1">
       <c r="A38" s="37"/>
       <c r="B38" s="37"/>
       <c r="C38" s="37"/>
@@ -4216,17 +4225,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="10.26953125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="10" style="13" customWidth="1"/>
     <col min="2" max="2" width="20" style="14" customWidth="1"/>
-    <col min="3" max="3" width="98.140625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="98.1796875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="14.26953125" style="13" customWidth="1"/>
     <col min="5" max="5" width="97" style="15" customWidth="1"/>
-    <col min="6" max="16384" width="10.28515625" style="15"/>
+    <col min="6" max="16384" width="10.26953125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="11" customFormat="1" ht="24">
+    <row r="1" spans="1:5" s="11" customFormat="1" ht="23.5">
       <c r="A1" s="16" t="s">
         <v>45</v>
       </c>
@@ -4252,7 +4261,7 @@
       </c>
       <c r="E2" s="21"/>
     </row>
-    <row r="3" spans="1:5" ht="15">
+    <row r="3" spans="1:5" ht="14.5">
       <c r="A3" s="22" t="s">
         <v>1</v>
       </c>
@@ -4267,7 +4276,7 @@
       </c>
       <c r="E3" s="26"/>
     </row>
-    <row r="4" spans="1:5" ht="15">
+    <row r="4" spans="1:5" ht="14.5">
       <c r="A4" s="22"/>
       <c r="B4" s="23"/>
       <c r="C4" s="24" t="s">
@@ -4276,7 +4285,7 @@
       <c r="D4" s="25"/>
       <c r="E4" s="26"/>
     </row>
-    <row r="5" spans="1:5" ht="15">
+    <row r="5" spans="1:5" ht="14.5">
       <c r="A5" s="22"/>
       <c r="B5" s="27"/>
       <c r="C5" s="24" t="s">
@@ -4424,29 +4433,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI79"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AC10" sqref="AC10:AM11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="BA20" sqref="BA20:BH21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="11"/>
   <cols>
     <col min="1" max="51" width="3" style="5"/>
-    <col min="52" max="52" width="5.42578125" style="5" customWidth="1"/>
+    <col min="52" max="52" width="5.453125" style="5" customWidth="1"/>
     <col min="53" max="59" width="3" style="5"/>
-    <col min="60" max="60" width="19.5703125" style="5" customWidth="1"/>
+    <col min="60" max="60" width="19.54296875" style="5" customWidth="1"/>
     <col min="61" max="16384" width="3" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:61">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="121"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="100"/>
       <c r="H1" s="133" t="s">
         <v>46</v>
       </c>
@@ -4496,12 +4505,12 @@
       <c r="AT1" s="135"/>
       <c r="AU1" s="135"/>
       <c r="AV1" s="135"/>
-      <c r="AW1" s="113" t="s">
+      <c r="AW1" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="AX1" s="114"/>
-      <c r="AY1" s="114"/>
-      <c r="AZ1" s="115"/>
+      <c r="AX1" s="93"/>
+      <c r="AY1" s="93"/>
+      <c r="AZ1" s="94"/>
       <c r="BA1" s="125" t="s">
         <v>13</v>
       </c>
@@ -4515,13 +4524,13 @@
       <c r="BI1" s="7"/>
     </row>
     <row r="2" spans="1:61">
-      <c r="A2" s="119"/>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="121"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="100"/>
       <c r="H2" s="126"/>
       <c r="I2" s="127"/>
       <c r="J2" s="127"/>
@@ -4571,12 +4580,12 @@
       <c r="AT2" s="130"/>
       <c r="AU2" s="130"/>
       <c r="AV2" s="130"/>
-      <c r="AW2" s="113" t="s">
+      <c r="AW2" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="AX2" s="114"/>
-      <c r="AY2" s="114"/>
-      <c r="AZ2" s="115"/>
+      <c r="AX2" s="93"/>
+      <c r="AY2" s="93"/>
+      <c r="AZ2" s="94"/>
       <c r="BA2" s="132" t="s">
         <v>16</v>
       </c>
@@ -4590,135 +4599,135 @@
       <c r="BI2" s="7"/>
     </row>
     <row r="3" spans="1:61">
-      <c r="A3" s="87"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="94"/>
-      <c r="S3" s="94"/>
-      <c r="T3" s="94"/>
-      <c r="U3" s="94"/>
-      <c r="V3" s="94"/>
-      <c r="W3" s="94"/>
-      <c r="X3" s="94"/>
-      <c r="Y3" s="94"/>
-      <c r="Z3" s="94"/>
-      <c r="AA3" s="94"/>
-      <c r="AB3" s="94"/>
-      <c r="AC3" s="94"/>
-      <c r="AD3" s="94"/>
-      <c r="AE3" s="94"/>
-      <c r="AF3" s="94"/>
-      <c r="AG3" s="94"/>
-      <c r="AH3" s="94"/>
-      <c r="AI3" s="95"/>
-      <c r="AJ3" s="113" t="s">
+      <c r="A3" s="101"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
+      <c r="K3" s="108"/>
+      <c r="L3" s="108"/>
+      <c r="M3" s="108"/>
+      <c r="N3" s="108"/>
+      <c r="O3" s="108"/>
+      <c r="P3" s="108"/>
+      <c r="Q3" s="108"/>
+      <c r="R3" s="108"/>
+      <c r="S3" s="108"/>
+      <c r="T3" s="108"/>
+      <c r="U3" s="108"/>
+      <c r="V3" s="108"/>
+      <c r="W3" s="108"/>
+      <c r="X3" s="108"/>
+      <c r="Y3" s="108"/>
+      <c r="Z3" s="108"/>
+      <c r="AA3" s="108"/>
+      <c r="AB3" s="108"/>
+      <c r="AC3" s="108"/>
+      <c r="AD3" s="108"/>
+      <c r="AE3" s="108"/>
+      <c r="AF3" s="108"/>
+      <c r="AG3" s="108"/>
+      <c r="AH3" s="108"/>
+      <c r="AI3" s="109"/>
+      <c r="AJ3" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="AK3" s="114"/>
-      <c r="AL3" s="114"/>
-      <c r="AM3" s="115"/>
-      <c r="AN3" s="116"/>
-      <c r="AO3" s="117"/>
-      <c r="AP3" s="117"/>
-      <c r="AQ3" s="117"/>
-      <c r="AR3" s="117"/>
-      <c r="AS3" s="117"/>
-      <c r="AT3" s="117"/>
-      <c r="AU3" s="117"/>
-      <c r="AV3" s="118"/>
-      <c r="AW3" s="113"/>
-      <c r="AX3" s="114"/>
-      <c r="AY3" s="114"/>
-      <c r="AZ3" s="115"/>
-      <c r="BA3" s="116"/>
-      <c r="BB3" s="117"/>
-      <c r="BC3" s="117"/>
-      <c r="BD3" s="117"/>
-      <c r="BE3" s="117"/>
-      <c r="BF3" s="117"/>
-      <c r="BG3" s="117"/>
-      <c r="BH3" s="118"/>
+      <c r="AK3" s="93"/>
+      <c r="AL3" s="93"/>
+      <c r="AM3" s="94"/>
+      <c r="AN3" s="95"/>
+      <c r="AO3" s="96"/>
+      <c r="AP3" s="96"/>
+      <c r="AQ3" s="96"/>
+      <c r="AR3" s="96"/>
+      <c r="AS3" s="96"/>
+      <c r="AT3" s="96"/>
+      <c r="AU3" s="96"/>
+      <c r="AV3" s="97"/>
+      <c r="AW3" s="92"/>
+      <c r="AX3" s="93"/>
+      <c r="AY3" s="93"/>
+      <c r="AZ3" s="94"/>
+      <c r="BA3" s="95"/>
+      <c r="BB3" s="96"/>
+      <c r="BC3" s="96"/>
+      <c r="BD3" s="96"/>
+      <c r="BE3" s="96"/>
+      <c r="BF3" s="96"/>
+      <c r="BG3" s="96"/>
+      <c r="BH3" s="97"/>
       <c r="BI3" s="7"/>
     </row>
     <row r="4" spans="1:61">
-      <c r="A4" s="90"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-      <c r="N4" s="97"/>
-      <c r="O4" s="97"/>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="97"/>
-      <c r="R4" s="97"/>
-      <c r="S4" s="97"/>
-      <c r="T4" s="97"/>
-      <c r="U4" s="97"/>
-      <c r="V4" s="97"/>
-      <c r="W4" s="97"/>
-      <c r="X4" s="97"/>
-      <c r="Y4" s="97"/>
-      <c r="Z4" s="97"/>
-      <c r="AA4" s="97"/>
-      <c r="AB4" s="97"/>
-      <c r="AC4" s="97"/>
-      <c r="AD4" s="97"/>
-      <c r="AE4" s="97"/>
-      <c r="AF4" s="97"/>
-      <c r="AG4" s="97"/>
-      <c r="AH4" s="97"/>
-      <c r="AI4" s="98"/>
-      <c r="AJ4" s="119" t="s">
+      <c r="A4" s="104"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="111"/>
+      <c r="M4" s="111"/>
+      <c r="N4" s="111"/>
+      <c r="O4" s="111"/>
+      <c r="P4" s="111"/>
+      <c r="Q4" s="111"/>
+      <c r="R4" s="111"/>
+      <c r="S4" s="111"/>
+      <c r="T4" s="111"/>
+      <c r="U4" s="111"/>
+      <c r="V4" s="111"/>
+      <c r="W4" s="111"/>
+      <c r="X4" s="111"/>
+      <c r="Y4" s="111"/>
+      <c r="Z4" s="111"/>
+      <c r="AA4" s="111"/>
+      <c r="AB4" s="111"/>
+      <c r="AC4" s="111"/>
+      <c r="AD4" s="111"/>
+      <c r="AE4" s="111"/>
+      <c r="AF4" s="111"/>
+      <c r="AG4" s="111"/>
+      <c r="AH4" s="111"/>
+      <c r="AI4" s="112"/>
+      <c r="AJ4" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="AK4" s="120"/>
-      <c r="AL4" s="120"/>
-      <c r="AM4" s="121"/>
-      <c r="AN4" s="122"/>
-      <c r="AO4" s="123"/>
-      <c r="AP4" s="123"/>
-      <c r="AQ4" s="123"/>
-      <c r="AR4" s="123"/>
-      <c r="AS4" s="123"/>
-      <c r="AT4" s="123"/>
-      <c r="AU4" s="123"/>
-      <c r="AV4" s="124"/>
-      <c r="AW4" s="119" t="s">
+      <c r="AK4" s="99"/>
+      <c r="AL4" s="99"/>
+      <c r="AM4" s="100"/>
+      <c r="AN4" s="121"/>
+      <c r="AO4" s="122"/>
+      <c r="AP4" s="122"/>
+      <c r="AQ4" s="122"/>
+      <c r="AR4" s="122"/>
+      <c r="AS4" s="122"/>
+      <c r="AT4" s="122"/>
+      <c r="AU4" s="122"/>
+      <c r="AV4" s="123"/>
+      <c r="AW4" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="AX4" s="120"/>
-      <c r="AY4" s="120"/>
-      <c r="AZ4" s="121"/>
-      <c r="BA4" s="122"/>
-      <c r="BB4" s="123"/>
-      <c r="BC4" s="123"/>
-      <c r="BD4" s="123"/>
-      <c r="BE4" s="123"/>
-      <c r="BF4" s="123"/>
-      <c r="BG4" s="123"/>
-      <c r="BH4" s="124"/>
+      <c r="AX4" s="99"/>
+      <c r="AY4" s="99"/>
+      <c r="AZ4" s="100"/>
+      <c r="BA4" s="121"/>
+      <c r="BB4" s="122"/>
+      <c r="BC4" s="122"/>
+      <c r="BD4" s="122"/>
+      <c r="BE4" s="122"/>
+      <c r="BF4" s="122"/>
+      <c r="BG4" s="122"/>
+      <c r="BH4" s="123"/>
     </row>
     <row r="5" spans="1:61" s="2" customFormat="1">
       <c r="A5" s="6"/>
@@ -4783,154 +4792,154 @@
       <c r="BH5" s="6"/>
       <c r="BI5" s="6"/>
     </row>
-    <row r="6" spans="1:61" ht="14.25">
-      <c r="A6" s="99" t="s">
+    <row r="6" spans="1:61" ht="14">
+      <c r="A6" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="99"/>
-      <c r="C6" s="107" t="s">
+      <c r="B6" s="113"/>
+      <c r="C6" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="108"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="108"/>
-      <c r="J6" s="108"/>
-      <c r="K6" s="108"/>
-      <c r="L6" s="108"/>
-      <c r="M6" s="108"/>
-      <c r="N6" s="108"/>
-      <c r="O6" s="108"/>
-      <c r="P6" s="108"/>
-      <c r="Q6" s="108"/>
-      <c r="R6" s="108"/>
-      <c r="S6" s="108"/>
-      <c r="T6" s="101" t="s">
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
+      <c r="N6" s="88"/>
+      <c r="O6" s="88"/>
+      <c r="P6" s="88"/>
+      <c r="Q6" s="88"/>
+      <c r="R6" s="88"/>
+      <c r="S6" s="88"/>
+      <c r="T6" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="U6" s="102"/>
-      <c r="V6" s="102"/>
-      <c r="W6" s="102"/>
-      <c r="X6" s="102"/>
-      <c r="Y6" s="102"/>
-      <c r="Z6" s="102"/>
-      <c r="AA6" s="102"/>
-      <c r="AB6" s="103"/>
-      <c r="AC6" s="101" t="s">
+      <c r="U6" s="116"/>
+      <c r="V6" s="116"/>
+      <c r="W6" s="116"/>
+      <c r="X6" s="116"/>
+      <c r="Y6" s="116"/>
+      <c r="Z6" s="116"/>
+      <c r="AA6" s="116"/>
+      <c r="AB6" s="117"/>
+      <c r="AC6" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="AD6" s="102"/>
-      <c r="AE6" s="102"/>
-      <c r="AF6" s="102"/>
-      <c r="AG6" s="102"/>
-      <c r="AH6" s="102"/>
-      <c r="AI6" s="102"/>
-      <c r="AJ6" s="102"/>
-      <c r="AK6" s="102"/>
-      <c r="AL6" s="102"/>
-      <c r="AM6" s="103"/>
-      <c r="AN6" s="101" t="s">
+      <c r="AD6" s="116"/>
+      <c r="AE6" s="116"/>
+      <c r="AF6" s="116"/>
+      <c r="AG6" s="116"/>
+      <c r="AH6" s="116"/>
+      <c r="AI6" s="116"/>
+      <c r="AJ6" s="116"/>
+      <c r="AK6" s="116"/>
+      <c r="AL6" s="116"/>
+      <c r="AM6" s="117"/>
+      <c r="AN6" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="AO6" s="102"/>
-      <c r="AP6" s="102"/>
-      <c r="AQ6" s="103"/>
-      <c r="AR6" s="101" t="s">
+      <c r="AO6" s="116"/>
+      <c r="AP6" s="116"/>
+      <c r="AQ6" s="117"/>
+      <c r="AR6" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="AS6" s="102"/>
-      <c r="AT6" s="103"/>
-      <c r="AU6" s="101" t="s">
+      <c r="AS6" s="116"/>
+      <c r="AT6" s="117"/>
+      <c r="AU6" s="115" t="s">
         <v>26</v>
       </c>
-      <c r="AV6" s="102"/>
-      <c r="AW6" s="103"/>
-      <c r="AX6" s="101" t="s">
+      <c r="AV6" s="116"/>
+      <c r="AW6" s="117"/>
+      <c r="AX6" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="AY6" s="102"/>
-      <c r="AZ6" s="103"/>
-      <c r="BA6" s="112" t="s">
+      <c r="AY6" s="116"/>
+      <c r="AZ6" s="117"/>
+      <c r="BA6" s="124" t="s">
         <v>27</v>
       </c>
-      <c r="BB6" s="112"/>
-      <c r="BC6" s="112"/>
-      <c r="BD6" s="112"/>
-      <c r="BE6" s="112"/>
-      <c r="BF6" s="112"/>
-      <c r="BG6" s="112"/>
-      <c r="BH6" s="112"/>
+      <c r="BB6" s="124"/>
+      <c r="BC6" s="124"/>
+      <c r="BD6" s="124"/>
+      <c r="BE6" s="124"/>
+      <c r="BF6" s="124"/>
+      <c r="BG6" s="124"/>
+      <c r="BH6" s="124"/>
       <c r="BI6" s="8"/>
     </row>
-    <row r="7" spans="1:61" s="3" customFormat="1" ht="14.25">
-      <c r="A7" s="100"/>
-      <c r="B7" s="100"/>
-      <c r="C7" s="109" t="s">
+    <row r="7" spans="1:61" s="3" customFormat="1" ht="14">
+      <c r="A7" s="114"/>
+      <c r="B7" s="114"/>
+      <c r="C7" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110"/>
-      <c r="H7" s="110" t="s">
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="I7" s="110"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="110"/>
-      <c r="L7" s="110"/>
-      <c r="M7" s="111" t="s">
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="N7" s="108"/>
-      <c r="O7" s="108"/>
-      <c r="P7" s="108"/>
-      <c r="Q7" s="108"/>
-      <c r="R7" s="108"/>
-      <c r="S7" s="108"/>
-      <c r="T7" s="104"/>
-      <c r="U7" s="105"/>
-      <c r="V7" s="105"/>
-      <c r="W7" s="105"/>
-      <c r="X7" s="105"/>
-      <c r="Y7" s="105"/>
-      <c r="Z7" s="105"/>
-      <c r="AA7" s="105"/>
-      <c r="AB7" s="106"/>
-      <c r="AC7" s="104"/>
-      <c r="AD7" s="105"/>
-      <c r="AE7" s="105"/>
-      <c r="AF7" s="105"/>
-      <c r="AG7" s="105"/>
-      <c r="AH7" s="105"/>
-      <c r="AI7" s="105"/>
-      <c r="AJ7" s="105"/>
-      <c r="AK7" s="105"/>
-      <c r="AL7" s="105"/>
-      <c r="AM7" s="106"/>
-      <c r="AN7" s="104"/>
-      <c r="AO7" s="105"/>
-      <c r="AP7" s="105"/>
-      <c r="AQ7" s="106"/>
-      <c r="AR7" s="104"/>
-      <c r="AS7" s="105"/>
-      <c r="AT7" s="106"/>
-      <c r="AU7" s="104"/>
-      <c r="AV7" s="105"/>
-      <c r="AW7" s="106"/>
-      <c r="AX7" s="104"/>
-      <c r="AY7" s="105"/>
-      <c r="AZ7" s="106"/>
-      <c r="BA7" s="112"/>
-      <c r="BB7" s="112"/>
-      <c r="BC7" s="112"/>
-      <c r="BD7" s="112"/>
-      <c r="BE7" s="112"/>
-      <c r="BF7" s="112"/>
-      <c r="BG7" s="112"/>
-      <c r="BH7" s="112"/>
+      <c r="N7" s="88"/>
+      <c r="O7" s="88"/>
+      <c r="P7" s="88"/>
+      <c r="Q7" s="88"/>
+      <c r="R7" s="88"/>
+      <c r="S7" s="88"/>
+      <c r="T7" s="118"/>
+      <c r="U7" s="119"/>
+      <c r="V7" s="119"/>
+      <c r="W7" s="119"/>
+      <c r="X7" s="119"/>
+      <c r="Y7" s="119"/>
+      <c r="Z7" s="119"/>
+      <c r="AA7" s="119"/>
+      <c r="AB7" s="120"/>
+      <c r="AC7" s="118"/>
+      <c r="AD7" s="119"/>
+      <c r="AE7" s="119"/>
+      <c r="AF7" s="119"/>
+      <c r="AG7" s="119"/>
+      <c r="AH7" s="119"/>
+      <c r="AI7" s="119"/>
+      <c r="AJ7" s="119"/>
+      <c r="AK7" s="119"/>
+      <c r="AL7" s="119"/>
+      <c r="AM7" s="120"/>
+      <c r="AN7" s="118"/>
+      <c r="AO7" s="119"/>
+      <c r="AP7" s="119"/>
+      <c r="AQ7" s="120"/>
+      <c r="AR7" s="118"/>
+      <c r="AS7" s="119"/>
+      <c r="AT7" s="120"/>
+      <c r="AU7" s="118"/>
+      <c r="AV7" s="119"/>
+      <c r="AW7" s="120"/>
+      <c r="AX7" s="118"/>
+      <c r="AY7" s="119"/>
+      <c r="AZ7" s="120"/>
+      <c r="BA7" s="124"/>
+      <c r="BB7" s="124"/>
+      <c r="BC7" s="124"/>
+      <c r="BD7" s="124"/>
+      <c r="BE7" s="124"/>
+      <c r="BF7" s="124"/>
+      <c r="BG7" s="124"/>
+      <c r="BH7" s="124"/>
       <c r="BI7" s="9"/>
     </row>
     <row r="8" spans="1:61" s="4" customFormat="1" ht="94.5" customHeight="1">
@@ -4939,7 +4948,7 @@
       </c>
       <c r="B8" s="75"/>
       <c r="C8" s="78" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D8" s="79"/>
       <c r="E8" s="79"/>
@@ -4953,7 +4962,7 @@
       <c r="K8" s="79"/>
       <c r="L8" s="80"/>
       <c r="M8" s="53" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="N8" s="54"/>
       <c r="O8" s="54"/>
@@ -4962,7 +4971,7 @@
       <c r="R8" s="54"/>
       <c r="S8" s="55"/>
       <c r="T8" s="59" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="U8" s="60"/>
       <c r="V8" s="60"/>
@@ -4985,14 +4994,12 @@
       <c r="AK8" s="60"/>
       <c r="AL8" s="60"/>
       <c r="AM8" s="61"/>
-      <c r="AN8" s="68" t="s">
-        <v>56</v>
-      </c>
+      <c r="AN8" s="68"/>
       <c r="AO8" s="69"/>
       <c r="AP8" s="69"/>
       <c r="AQ8" s="70"/>
       <c r="AR8" s="68" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AS8" s="69"/>
       <c r="AT8" s="70"/>
@@ -5000,7 +5007,7 @@
       <c r="AV8" s="69"/>
       <c r="AW8" s="70"/>
       <c r="AX8" s="68" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="AY8" s="69"/>
       <c r="AZ8" s="70"/>
@@ -5079,12 +5086,11 @@
     </row>
     <row r="10" spans="1:61" s="4" customFormat="1" ht="94.5" customHeight="1">
       <c r="A10" s="74">
-        <f>A8+1</f>
         <v>2</v>
       </c>
       <c r="B10" s="75"/>
       <c r="C10" s="78" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D10" s="79"/>
       <c r="E10" s="79"/>
@@ -5098,7 +5104,7 @@
       <c r="K10" s="79"/>
       <c r="L10" s="80"/>
       <c r="M10" s="54" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="N10" s="60"/>
       <c r="O10" s="60"/>
@@ -5107,7 +5113,7 @@
       <c r="R10" s="60"/>
       <c r="S10" s="61"/>
       <c r="T10" s="59" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="U10" s="60"/>
       <c r="V10" s="60"/>
@@ -5118,7 +5124,7 @@
       <c r="AA10" s="60"/>
       <c r="AB10" s="60"/>
       <c r="AC10" s="53" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AD10" s="60"/>
       <c r="AE10" s="60"/>
@@ -5130,14 +5136,12 @@
       <c r="AK10" s="60"/>
       <c r="AL10" s="60"/>
       <c r="AM10" s="61"/>
-      <c r="AN10" s="68" t="s">
-        <v>56</v>
-      </c>
+      <c r="AN10" s="68"/>
       <c r="AO10" s="69"/>
       <c r="AP10" s="69"/>
       <c r="AQ10" s="70"/>
       <c r="AR10" s="68" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AS10" s="69"/>
       <c r="AT10" s="70"/>
@@ -5145,7 +5149,7 @@
       <c r="AV10" s="69"/>
       <c r="AW10" s="70"/>
       <c r="AX10" s="68" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="AY10" s="69"/>
       <c r="AZ10" s="70"/>
@@ -5224,12 +5228,11 @@
     </row>
     <row r="12" spans="1:61" s="4" customFormat="1" ht="94.5" customHeight="1">
       <c r="A12" s="74">
-        <f t="shared" ref="A12" si="0">A10+1</f>
         <v>3</v>
       </c>
       <c r="B12" s="75"/>
       <c r="C12" s="78" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D12" s="79"/>
       <c r="E12" s="79"/>
@@ -5243,7 +5246,7 @@
       <c r="K12" s="79"/>
       <c r="L12" s="80"/>
       <c r="M12" s="54" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="N12" s="60"/>
       <c r="O12" s="60"/>
@@ -5252,7 +5255,7 @@
       <c r="R12" s="60"/>
       <c r="S12" s="61"/>
       <c r="T12" s="59" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="U12" s="60"/>
       <c r="V12" s="60"/>
@@ -5263,7 +5266,7 @@
       <c r="AA12" s="60"/>
       <c r="AB12" s="60"/>
       <c r="AC12" s="53" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="AD12" s="60"/>
       <c r="AE12" s="60"/>
@@ -5275,24 +5278,18 @@
       <c r="AK12" s="60"/>
       <c r="AL12" s="60"/>
       <c r="AM12" s="61"/>
-      <c r="AN12" s="68" t="s">
-        <v>56</v>
-      </c>
+      <c r="AN12" s="68"/>
       <c r="AO12" s="69"/>
       <c r="AP12" s="69"/>
       <c r="AQ12" s="70"/>
-      <c r="AR12" s="68" t="s">
-        <v>57</v>
-      </c>
+      <c r="AR12" s="68"/>
       <c r="AS12" s="69"/>
       <c r="AT12" s="70"/>
-      <c r="AU12" s="68" t="s">
-        <v>58</v>
-      </c>
+      <c r="AU12" s="68"/>
       <c r="AV12" s="69"/>
       <c r="AW12" s="70"/>
       <c r="AX12" s="68" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="AY12" s="69"/>
       <c r="AZ12" s="70"/>
@@ -5375,21 +5372,21 @@
       </c>
       <c r="B14" s="75"/>
       <c r="C14" s="78" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D14" s="79"/>
       <c r="E14" s="79"/>
       <c r="F14" s="79"/>
       <c r="G14" s="80"/>
       <c r="H14" s="78" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="I14" s="79"/>
       <c r="J14" s="79"/>
       <c r="K14" s="79"/>
       <c r="L14" s="80"/>
       <c r="M14" s="54" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="N14" s="60"/>
       <c r="O14" s="60"/>
@@ -5398,7 +5395,7 @@
       <c r="R14" s="60"/>
       <c r="S14" s="61"/>
       <c r="T14" s="59" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="U14" s="60"/>
       <c r="V14" s="60"/>
@@ -5409,7 +5406,7 @@
       <c r="AA14" s="60"/>
       <c r="AB14" s="60"/>
       <c r="AC14" s="53" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AD14" s="60"/>
       <c r="AE14" s="60"/>
@@ -5421,14 +5418,12 @@
       <c r="AK14" s="60"/>
       <c r="AL14" s="60"/>
       <c r="AM14" s="61"/>
-      <c r="AN14" s="68" t="s">
-        <v>56</v>
-      </c>
+      <c r="AN14" s="68"/>
       <c r="AO14" s="69"/>
       <c r="AP14" s="69"/>
       <c r="AQ14" s="70"/>
       <c r="AR14" s="68" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AS14" s="69"/>
       <c r="AT14" s="70"/>
@@ -5436,7 +5431,7 @@
       <c r="AV14" s="69"/>
       <c r="AW14" s="70"/>
       <c r="AX14" s="68" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="AY14" s="69"/>
       <c r="AZ14" s="70"/>
@@ -5519,14 +5514,14 @@
       </c>
       <c r="B16" s="75"/>
       <c r="C16" s="78" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D16" s="79"/>
       <c r="E16" s="79"/>
       <c r="F16" s="79"/>
       <c r="G16" s="80"/>
       <c r="H16" s="78" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="I16" s="79"/>
       <c r="J16" s="79"/>
@@ -5553,7 +5548,7 @@
       <c r="AA16" s="60"/>
       <c r="AB16" s="60"/>
       <c r="AC16" s="53" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="AD16" s="60"/>
       <c r="AE16" s="60"/>
@@ -5569,13 +5564,17 @@
       <c r="AO16" s="69"/>
       <c r="AP16" s="69"/>
       <c r="AQ16" s="70"/>
-      <c r="AR16" s="68"/>
+      <c r="AR16" s="68" t="s">
+        <v>56</v>
+      </c>
       <c r="AS16" s="69"/>
       <c r="AT16" s="70"/>
       <c r="AU16" s="68"/>
       <c r="AV16" s="69"/>
       <c r="AW16" s="70"/>
-      <c r="AX16" s="68"/>
+      <c r="AX16" s="68" t="s">
+        <v>64</v>
+      </c>
       <c r="AY16" s="69"/>
       <c r="AZ16" s="70"/>
       <c r="BA16" s="47"/>
@@ -5650,26 +5649,36 @@
       <c r="BH17" s="52"/>
     </row>
     <row r="18" spans="1:60" ht="92.25" customHeight="1">
-      <c r="A18" s="74"/>
+      <c r="A18" s="74">
+        <v>6</v>
+      </c>
       <c r="B18" s="75"/>
-      <c r="C18" s="78"/>
+      <c r="C18" s="78" t="s">
+        <v>57</v>
+      </c>
       <c r="D18" s="79"/>
       <c r="E18" s="79"/>
       <c r="F18" s="79"/>
       <c r="G18" s="80"/>
-      <c r="H18" s="78"/>
+      <c r="H18" s="78" t="s">
+        <v>49</v>
+      </c>
       <c r="I18" s="79"/>
       <c r="J18" s="79"/>
       <c r="K18" s="79"/>
       <c r="L18" s="80"/>
-      <c r="M18" s="54"/>
+      <c r="M18" s="54" t="s">
+        <v>74</v>
+      </c>
       <c r="N18" s="60"/>
       <c r="O18" s="60"/>
       <c r="P18" s="60"/>
       <c r="Q18" s="60"/>
       <c r="R18" s="60"/>
       <c r="S18" s="61"/>
-      <c r="T18" s="59"/>
+      <c r="T18" s="59" t="s">
+        <v>75</v>
+      </c>
       <c r="U18" s="60"/>
       <c r="V18" s="60"/>
       <c r="W18" s="60"/>
@@ -5678,7 +5687,9 @@
       <c r="Z18" s="60"/>
       <c r="AA18" s="60"/>
       <c r="AB18" s="60"/>
-      <c r="AC18" s="53"/>
+      <c r="AC18" s="53" t="s">
+        <v>76</v>
+      </c>
       <c r="AD18" s="60"/>
       <c r="AE18" s="60"/>
       <c r="AF18" s="60"/>
@@ -5693,13 +5704,17 @@
       <c r="AO18" s="69"/>
       <c r="AP18" s="69"/>
       <c r="AQ18" s="70"/>
-      <c r="AR18" s="68"/>
+      <c r="AR18" s="68" t="s">
+        <v>56</v>
+      </c>
       <c r="AS18" s="69"/>
       <c r="AT18" s="70"/>
       <c r="AU18" s="68"/>
       <c r="AV18" s="69"/>
       <c r="AW18" s="70"/>
-      <c r="AX18" s="68"/>
+      <c r="AX18" s="68" t="s">
+        <v>64</v>
+      </c>
       <c r="AY18" s="69"/>
       <c r="AZ18" s="70"/>
       <c r="BA18" s="47"/>
@@ -9598,6 +9613,10 @@
     <mergeCell ref="AX6:AZ7"/>
     <mergeCell ref="AN6:AQ7"/>
     <mergeCell ref="BA6:BH7"/>
+    <mergeCell ref="C6:S6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="M7:S7"/>
     <mergeCell ref="AJ3:AM3"/>
     <mergeCell ref="AN3:AV3"/>
     <mergeCell ref="AW3:AZ3"/>
@@ -9608,15 +9627,6 @@
     <mergeCell ref="A6:B7"/>
     <mergeCell ref="T6:AB7"/>
     <mergeCell ref="AC6:AM7"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="C8:G9"/>
-    <mergeCell ref="H8:L9"/>
-    <mergeCell ref="M8:S9"/>
-    <mergeCell ref="T8:AB9"/>
-    <mergeCell ref="C6:S6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="M7:S7"/>
     <mergeCell ref="T12:AB13"/>
     <mergeCell ref="T10:AB11"/>
     <mergeCell ref="AC8:AM9"/>
@@ -9635,6 +9645,11 @@
     <mergeCell ref="C12:G13"/>
     <mergeCell ref="H12:L13"/>
     <mergeCell ref="M12:S13"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="C8:G9"/>
+    <mergeCell ref="H8:L9"/>
+    <mergeCell ref="M8:S9"/>
+    <mergeCell ref="T8:AB9"/>
     <mergeCell ref="AN14:AQ15"/>
     <mergeCell ref="AR14:AT15"/>
     <mergeCell ref="AU14:AW15"/>
@@ -9958,7 +9973,7 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9972,7 +9987,7 @@
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="5" spans="5:13">
       <c r="E5" t="s">
